--- a/data/temps/Sector.xlsx
+++ b/data/temps/Sector.xlsx
@@ -459,12 +459,8 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -472,15 +468,11 @@
           <t>Teknologi</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -488,12 +480,8 @@
           <t>Perindustrian</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>1</v>
       </c>

--- a/data/temps/Sector.xlsx
+++ b/data/temps/Sector.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Perindustrian</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -459,8 +464,15 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,11 +480,18 @@
           <t>Teknologi</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,9 +499,35 @@
           <t>Perindustrian</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Kesehatan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/temps/Sector.xlsx
+++ b/data/temps/Sector.xlsx
@@ -464,15 +464,9 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,18 +474,12 @@
           <t>Teknologi</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -499,18 +487,12 @@
           <t>Perindustrian</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -518,15 +500,9 @@
           <t>Kesehatan</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>1</v>
       </c>

--- a/data/temps/Sector.xlsx
+++ b/data/temps/Sector.xlsx
@@ -464,9 +464,15 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -474,12 +480,18 @@
           <t>Teknologi</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -487,12 +499,18 @@
           <t>Perindustrian</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -500,9 +518,15 @@
           <t>Kesehatan</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
